--- a/Docs/Soportes/Ficha_Tecnica.xlsx
+++ b/Docs/Soportes/Ficha_Tecnica.xlsx
@@ -5,26 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN SEBASTIAN\Documents\Exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN SEBASTIAN\Desktop\Zeyra\Docs\Soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308AFB3-C1C5-44F0-9BF4-335AB3DAC82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04960D4E-96DB-48C3-AEC7-6472D4309828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ficha Técnica de Software" sheetId="1" r:id="rId1"/>
     <sheet name="Ficha Técnica de Hardware" sheetId="3" r:id="rId2"/>
-    <sheet name="Gráfico1" sheetId="5" r:id="rId3"/>
-    <sheet name="Lista de Chequeo Software 1" sheetId="2" r:id="rId4"/>
-    <sheet name="Lista de Chequeo Hardware 1" sheetId="4" r:id="rId5"/>
+    <sheet name="Lista de Chequeo Software 1" sheetId="2" r:id="rId3"/>
+    <sheet name="Lista de Chequeo Hardware 1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="142">
   <si>
     <t>FICHA TÉCNICA DE SOFTWARE</t>
   </si>
@@ -428,9 +427,6 @@
     <t>Base de datos: MySql</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>Zeyra</t>
   </si>
   <si>
@@ -444,13 +440,22 @@
   </si>
   <si>
     <t>Backend: PHP, JS</t>
+  </si>
+  <si>
+    <t>Diagramas: PlantUML</t>
+  </si>
+  <si>
+    <t>Diseño Software: Figma</t>
+  </si>
+  <si>
+    <t>CS (Client-Server)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -553,6 +558,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -914,15 +924,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -955,35 +956,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1001,6 +1002,15 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,922 +1026,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Ficha Técnica de Software'!$B$1:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="23"/>
-                <c:pt idx="2">
-                  <c:v>Zeyra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Software de código abierto</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Web</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Windows</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Zeyra</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>eCommerce</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Frontend: HTML, CSS, JS</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Backend: PHP, JS</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MySql</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>IDEs : Visual Studio Code</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Base de datos: MySql</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Control de versiones: Git, Github</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Documentación: Microsoft Word, Microsoft Excel</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>CS</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Windows 11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ficha Técnica de Software'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart">
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ficha Técnica de Software'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C2C7-4268-9608-0E6FCF3EFA9E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="398783960"/>
-        <c:axId val="398783176"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="398783960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="398783176"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="398783176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="398783960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666963" cy="6297521"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F334B1C4-9C54-4A2C-A07E-6BCF2C2FC59A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2138,7 +1232,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2149,23 +1243,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12.75">
@@ -2181,7 +1275,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75">
@@ -2193,31 +1287,31 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75">
-      <c r="A8" s="51"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12.75">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:2" ht="25.5" customHeight="1">
       <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12.75">
@@ -2225,27 +1319,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A12" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="42"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A12" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="45"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="52"/>
+      <c r="B14" s="27" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="27" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
@@ -2269,7 +1363,7 @@
       <c r="B17" s="40"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="81" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -2277,44 +1371,52 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="26" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="42"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="26" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="43"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="26" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="83"/>
+      <c r="B23" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B24" s="36" t="s">
+        <v>141</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="6"/>
     </row>
@@ -2332,14 +1434,15 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A18:A23"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2366,13 +1469,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="12.75">
       <c r="A2" s="12" t="s">
@@ -2381,17 +1484,17 @@
       <c r="B2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="59">
+      <c r="A3" s="57">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -2405,8 +1508,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="13" t="s">
         <v>70</v>
       </c>
@@ -2418,8 +1521,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="13" t="s">
         <v>72</v>
       </c>
@@ -2432,17 +1535,17 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="48" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="13" t="s">
         <v>75</v>
       </c>
@@ -2454,8 +1557,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="13" t="s">
         <v>68</v>
       </c>
@@ -2467,8 +1570,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="13" t="s">
         <v>70</v>
       </c>
@@ -2481,18 +1584,18 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="62" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="14" t="s">
         <v>80</v>
       </c>
@@ -2504,17 +1607,17 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="62" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="14" t="s">
         <v>80</v>
       </c>
@@ -2526,17 +1629,17 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.75">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="62" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="14" t="s">
         <v>86</v>
       </c>
@@ -2548,8 +1651,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="14" t="s">
         <v>89</v>
       </c>
@@ -2561,8 +1664,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="3" t="s">
         <v>91</v>
       </c>
@@ -2574,8 +1677,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="29" t="s">
         <v>48</v>
       </c>
@@ -2587,10 +1690,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75">
-      <c r="A19" s="59">
+      <c r="A19" s="57">
         <v>1</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="53" t="s">
         <v>127</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -2601,16 +1704,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" s="67"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="30" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:5" ht="12.75">
-      <c r="A21" s="67"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="30" t="s">
         <v>72</v>
       </c>
@@ -2619,17 +1722,17 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75">
-      <c r="A22" s="67"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="66" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="67"/>
-      <c r="B23" s="64"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="30" t="s">
         <v>75</v>
       </c>
@@ -2638,8 +1741,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="67"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="30" t="s">
         <v>68</v>
       </c>
@@ -2648,8 +1751,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="67"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="30" t="s">
         <v>70</v>
       </c>
@@ -2658,17 +1761,17 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="66" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="66"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="30" t="s">
         <v>80</v>
       </c>
@@ -2677,8 +1780,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="67"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="32" t="s">
         <v>83</v>
       </c>
@@ -2686,8 +1789,8 @@
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="67"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="30" t="s">
         <v>80</v>
       </c>
@@ -2697,25 +1800,25 @@
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="66" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="66"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="30" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="67"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="30" t="s">
         <v>89</v>
       </c>
@@ -2724,8 +1827,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A33" s="67"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="34" t="s">
         <v>91</v>
       </c>
@@ -2734,8 +1837,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A34" s="68"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="34" t="s">
         <v>48</v>
       </c>
@@ -2745,12 +1848,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B34"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B3:B18"/>
@@ -2758,6 +1855,12 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B19:B34"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2771,7 +1874,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2783,15 +1886,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
@@ -2811,12 +1914,12 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="12.75">
@@ -2875,12 +1978,12 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="12.75">
@@ -2917,12 +2020,12 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="12.75">
@@ -2959,12 +2062,12 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="14.25">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="12.75">
@@ -2990,12 +2093,12 @@
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="14.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="12.75">
@@ -3032,47 +2135,47 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="14.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="12.75">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="69"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="12.75">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="12.75">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="12.75">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="12.75">
-      <c r="A29" s="76"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3111,12 +2214,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
@@ -3135,17 +2238,17 @@
       <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="14.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="16"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="1:14" ht="12.75">
       <c r="A4" s="19" t="s">
@@ -3178,12 +2281,12 @@
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="14.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="16"/>
       <c r="K6" s="18"/>
       <c r="L6" s="21"/>
@@ -3386,12 +2489,12 @@
       <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" ht="14.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="16"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -3399,10 +2502,10 @@
       <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" ht="12.75">
-      <c r="A21" s="70"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="16"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -3410,10 +2513,10 @@
       <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14" ht="12.75">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="75"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="16"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -3421,10 +2524,10 @@
       <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14" ht="12.75">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="16"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -3432,10 +2535,10 @@
       <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" ht="12.75">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="16"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -3443,10 +2546,10 @@
       <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" ht="12.75">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="16"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
